--- a/v4/log results.xlsx
+++ b/v4/log results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto Truco\pycharm2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcosPrevitali\Documents\XX - Proyecto Truco\pycharm2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D6FAFB-4FC7-42E9-8BFC-B877F9EBF824}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D557E7CB-0DAF-4C77-ABD9-C0A5EBB7E5BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="2205" windowWidth="20130" windowHeight="16455" tabRatio="613" activeTab="8" xr2:uid="{42B03472-F12E-4C60-9FF9-76C3B66C105B}"/>
+    <workbookView xWindow="21360" yWindow="5040" windowWidth="20550" windowHeight="12300" tabRatio="613" firstSheet="1" activeTab="8" xr2:uid="{42B03472-F12E-4C60-9FF9-76C3B66C105B}"/>
   </bookViews>
   <sheets>
     <sheet name="v2 r2" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="v4(envido)" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="192">
   <si>
     <t>gen1</t>
   </si>
@@ -546,6 +547,75 @@
   </si>
   <si>
     <t>L2 =0.01 y 70E y 6p SIN DROPOUT</t>
+  </si>
+  <si>
+    <t>57.59%</t>
+  </si>
+  <si>
+    <t>Empiezo a tener cierta circularidad (ejemplo Gen8) pero no es necesariamente un problema (gen 17 y gen 15 muestran un piedra papel y tijera)</t>
+  </si>
+  <si>
+    <t>policy greedy determinista nunca va a converger porque siempre va a existir una best response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">necesito estocastico, que tal hiperparametro phi? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ufa, otro hiperparametro? Lo necesito entrenar? </t>
+  </si>
+  <si>
+    <t>mejor softmax sobre value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new 16 tendra stockastic </t>
+  </si>
+  <si>
+    <t>gen66</t>
+  </si>
+  <si>
+    <t>este tendra que ser mejor que su par 66 versus 15 y 17 (su padre y su hijo)  y versus 8</t>
+  </si>
+  <si>
+    <t>old 16 sera 66 y viejo 17 sera 77</t>
+  </si>
+  <si>
+    <t>deben ser grandes</t>
+  </si>
+  <si>
+    <t>deben ser pequeños</t>
+  </si>
+  <si>
+    <t>ademas head to head de 16 vs 66 y 17 vs 77 favorable a los teenagers</t>
+  </si>
+  <si>
+    <t>gen77</t>
+  </si>
+  <si>
+    <t>4.5hrs</t>
+  </si>
+  <si>
+    <t>39.46%</t>
+  </si>
+  <si>
+    <t>observaciones:</t>
+  </si>
+  <si>
+    <t>16 cumple con lo mandatorio basico (ganarle a 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 le gana el head to head a su hermano 66 </t>
+  </si>
+  <si>
+    <t>16 empate tecnico con su sobrino 17 en head to head</t>
+  </si>
+  <si>
+    <t>77 p1 fue hecho anti66 (57,6%) pero el 16 le paro el carro (39,46%)</t>
+  </si>
+  <si>
+    <t>77 p2 fue hecho anti66 (32,4%)  pero con 16 no le fue tan bien (38,4%)</t>
+  </si>
+  <si>
+    <t>16 p2 no fue tan efectivo como 66p2 en dominar a 15p1  (25,5% vs 32,5%)</t>
   </si>
 </sst>
 </file>
@@ -585,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +719,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1054,10 +1136,19 @@
     <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2810,6 +2901,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>268941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>726397</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2F0653-EF9B-44E7-B7C2-91413F396FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4022911" y="26277794"/>
+          <a:ext cx="3561486" cy="3025589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5509,10 +5644,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3EAB38-01C7-4A62-82C2-717D49706A89}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5736,6 +5871,31 @@
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7283,16 +7443,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7646CF-F703-4F0A-AD61-3EB0734B0E6E}">
-  <dimension ref="A5:Z118"/>
+  <dimension ref="A5:AA147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W109" sqref="W109"/>
+    <sheetView tabSelected="1" topLeftCell="O116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U146" sqref="U146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="26" width="6" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" customWidth="1"/>
     <col min="30" max="30" width="6.85546875" customWidth="1"/>
     <col min="36" max="36" width="7.42578125" customWidth="1"/>
   </cols>
@@ -8680,7 +8841,7 @@
         <v>112</v>
       </c>
       <c r="X104" s="14" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="Y104" s="14" t="s">
         <v>114</v>
@@ -8726,7 +8887,9 @@
       <c r="U105" s="21"/>
       <c r="V105" s="11"/>
       <c r="W105" s="11"/>
-      <c r="X105" s="11"/>
+      <c r="X105" s="11">
+        <v>0.3231</v>
+      </c>
       <c r="Y105" s="11"/>
       <c r="Z105" s="11"/>
     </row>
@@ -8738,9 +8901,15 @@
         <v>112</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>114</v>
       </c>
       <c r="L106" s="16" t="s">
@@ -8779,6 +8948,13 @@
       <c r="C107" s="39">
         <v>0.41699999999999998</v>
       </c>
+      <c r="D107" s="47"/>
+      <c r="E107" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="F107" s="39">
+        <v>0.435</v>
+      </c>
       <c r="L107" s="16" t="s">
         <v>90</v>
       </c>
@@ -8789,7 +8965,7 @@
       <c r="O107" s="19">
         <v>0.4728</v>
       </c>
-      <c r="P107" s="47">
+      <c r="P107" s="46">
         <v>0.33</v>
       </c>
       <c r="Q107" s="11"/>
@@ -8813,6 +8989,15 @@
       <c r="C108">
         <v>1.746</v>
       </c>
+      <c r="D108">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="E108">
+        <v>1.708</v>
+      </c>
+      <c r="F108">
+        <v>1.7410000000000001</v>
+      </c>
       <c r="L108" s="16" t="s">
         <v>91</v>
       </c>
@@ -8824,7 +9009,7 @@
       <c r="P108" s="19">
         <v>0.37930000000000003</v>
       </c>
-      <c r="Q108" s="46">
+      <c r="Q108" s="48">
         <v>0.38240000000000002</v>
       </c>
       <c r="R108" s="45">
@@ -8845,8 +9030,12 @@
       <c r="W108" s="11">
         <v>0.32929999999999998</v>
       </c>
-      <c r="X108" s="11"/>
-      <c r="Y108" s="11"/>
+      <c r="X108" s="45">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="Y108" s="11">
+        <v>0.42930000000000001</v>
+      </c>
       <c r="Z108" s="11"/>
     </row>
     <row r="109" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8859,6 +9048,15 @@
       <c r="C109">
         <v>1.768</v>
       </c>
+      <c r="D109">
+        <v>1.635</v>
+      </c>
+      <c r="E109">
+        <v>1.736</v>
+      </c>
+      <c r="F109">
+        <v>1.7390000000000001</v>
+      </c>
       <c r="L109" s="16" t="s">
         <v>92</v>
       </c>
@@ -8867,7 +9065,7 @@
       </c>
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
-      <c r="P109" s="45">
+      <c r="P109" s="11">
         <v>0.4299</v>
       </c>
       <c r="Q109" s="19">
@@ -8895,13 +9093,20 @@
       <c r="C110">
         <v>1.7050000000000001</v>
       </c>
+      <c r="D110">
+        <v>1.585</v>
+      </c>
+      <c r="E110" s="47"/>
+      <c r="F110">
+        <v>1.6990000000000001</v>
+      </c>
       <c r="L110" s="16" t="s">
         <v>102</v>
       </c>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
-      <c r="P110" s="45">
+      <c r="P110" s="11">
         <v>0.4284</v>
       </c>
       <c r="Q110" s="43">
@@ -8931,6 +9136,13 @@
       <c r="C111">
         <v>1.667</v>
       </c>
+      <c r="D111">
+        <v>1.391</v>
+      </c>
+      <c r="E111" s="47"/>
+      <c r="F111">
+        <v>1.657</v>
+      </c>
       <c r="L111" s="16" t="s">
         <v>106</v>
       </c>
@@ -8969,6 +9181,13 @@
       <c r="C112" t="s">
         <v>27</v>
       </c>
+      <c r="D112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" s="47"/>
+      <c r="F112" t="s">
+        <v>27</v>
+      </c>
       <c r="L112" s="16" t="s">
         <v>108</v>
       </c>
@@ -8997,14 +9216,17 @@
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
     </row>
-    <row r="113" spans="12:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>183</v>
+      </c>
       <c r="L113" s="16" t="s">
         <v>109</v>
       </c>
       <c r="M113" s="44"/>
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
-      <c r="P113" s="45">
+      <c r="P113" s="11">
         <v>0.38549999999999995</v>
       </c>
       <c r="Q113" s="11"/>
@@ -9016,12 +9238,14 @@
       <c r="U113" s="19">
         <v>0.38040000000000002</v>
       </c>
-      <c r="V113" s="43"/>
+      <c r="V113" s="43">
+        <v>0.35010000000000002</v>
+      </c>
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
     </row>
-    <row r="114" spans="12:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L114" s="16" t="s">
         <v>111</v>
       </c>
@@ -9035,73 +9259,104 @@
       <c r="R114" s="11"/>
       <c r="S114" s="11"/>
       <c r="T114" s="11"/>
-      <c r="U114" s="43"/>
+      <c r="U114" s="43">
+        <v>0.44240000000000002</v>
+      </c>
       <c r="V114" s="19">
         <v>0.40389999999999998</v>
       </c>
-      <c r="W114" s="43"/>
+      <c r="W114" s="43">
+        <v>0.31180000000000002</v>
+      </c>
       <c r="X114" s="11"/>
       <c r="Y114" s="11"/>
       <c r="Z114" s="11"/>
     </row>
-    <row r="115" spans="12:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L115" s="16" t="s">
         <v>112</v>
       </c>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
+      <c r="P115" s="11">
+        <v>0.46810000000000002</v>
+      </c>
       <c r="Q115" s="11"/>
       <c r="R115" s="11"/>
       <c r="S115" s="11"/>
       <c r="T115" s="11"/>
-      <c r="V115" s="43"/>
+      <c r="V115" s="43">
+        <v>0.53610000000000002</v>
+      </c>
       <c r="W115" s="19">
         <v>0.3861</v>
       </c>
-      <c r="X115" s="43"/>
+      <c r="X115" s="43">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="Y115" s="45">
+        <v>0.42049999999999998</v>
+      </c>
       <c r="Z115" s="11"/>
     </row>
-    <row r="116" spans="12:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L116" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M116" s="11"/>
+        <v>176</v>
+      </c>
+      <c r="M116" s="11">
+        <v>0.59119999999999995</v>
+      </c>
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
-      <c r="P116" s="11"/>
+      <c r="P116" s="45">
+        <v>0.37159999999999999</v>
+      </c>
       <c r="Q116" s="11"/>
       <c r="R116" s="11"/>
       <c r="S116" s="11"/>
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
       <c r="V116" s="11"/>
-      <c r="W116" s="43"/>
-      <c r="X116" s="19"/>
-      <c r="Y116" s="43"/>
+      <c r="W116" s="43">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="X116" s="19">
+        <v>0.432</v>
+      </c>
+      <c r="Y116" s="43">
+        <v>0.32429999999999998</v>
+      </c>
       <c r="Z116" s="11"/>
     </row>
-    <row r="117" spans="12:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L117" s="16" t="s">
         <v>114</v>
       </c>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
+      <c r="P117" s="11">
+        <v>0.30959999999999999</v>
+      </c>
       <c r="Q117" s="11"/>
       <c r="R117" s="11"/>
       <c r="S117" s="11"/>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
       <c r="V117" s="11"/>
-      <c r="W117" s="11"/>
-      <c r="X117" s="43"/>
-      <c r="Y117" s="19"/>
+      <c r="W117" s="11">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="X117" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y117" s="19">
+        <v>0.34329999999999999</v>
+      </c>
       <c r="Z117" s="43"/>
     </row>
-    <row r="118" spans="12:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L118" s="16" t="s">
         <v>115</v>
       </c>
@@ -9120,6 +9375,258 @@
       <c r="Y118" s="43"/>
       <c r="Z118" s="19"/>
     </row>
+    <row r="121" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="O121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="O122" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="O123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V129" s="16">
+        <v>8</v>
+      </c>
+      <c r="W129" s="16">
+        <v>15</v>
+      </c>
+      <c r="X129" s="16">
+        <v>66</v>
+      </c>
+      <c r="Y129" s="16">
+        <v>77</v>
+      </c>
+      <c r="Z129" s="16">
+        <v>16</v>
+      </c>
+      <c r="AA129" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="T130" s="16">
+        <v>8</v>
+      </c>
+      <c r="V130" s="19">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="W130" s="11">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="X130" s="45">
+        <v>0.37480000000000002</v>
+      </c>
+      <c r="Y130" s="45">
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="Z130" s="52">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="AA130" s="52"/>
+    </row>
+    <row r="131" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T131" s="16">
+        <v>15</v>
+      </c>
+      <c r="V131" s="11">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="W131" s="19">
+        <v>0.3861</v>
+      </c>
+      <c r="X131" s="43">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="Y131" s="45">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="Z131" s="11">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="AA131" s="11"/>
+    </row>
+    <row r="132" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>82</v>
+      </c>
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="E132" s="2"/>
+      <c r="T132" s="16">
+        <v>66</v>
+      </c>
+      <c r="V132" s="45">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="W132" s="43">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="X132" s="19">
+        <v>0.432</v>
+      </c>
+      <c r="Y132" s="43">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="Z132" s="11">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="AA132" s="11"/>
+    </row>
+    <row r="133" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>78</v>
+      </c>
+      <c r="T133" s="16">
+        <v>77</v>
+      </c>
+      <c r="V133" s="45">
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="W133" s="11">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="X133" s="43">
+        <v>0.57589999999999997</v>
+      </c>
+      <c r="Y133" s="19">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="Z133" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA133" s="11"/>
+    </row>
+    <row r="134" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>79</v>
+      </c>
+      <c r="T134" s="16">
+        <v>16</v>
+      </c>
+      <c r="V134" s="49">
+        <v>0.41270000000000001</v>
+      </c>
+      <c r="W134" s="11">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="X134" s="11">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="Y134" s="11">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="Z134" s="19">
+        <v>0.37140000000000001</v>
+      </c>
+      <c r="AA134" s="11"/>
+    </row>
+    <row r="135" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>80</v>
+      </c>
+      <c r="T135" s="16">
+        <v>17</v>
+      </c>
+      <c r="V135" s="49"/>
+      <c r="W135" s="11"/>
+      <c r="X135" s="11"/>
+      <c r="Y135" s="11"/>
+      <c r="Z135" s="11"/>
+      <c r="AA135" s="19"/>
+    </row>
+    <row r="136" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>83</v>
+      </c>
+      <c r="U137" s="50"/>
+      <c r="V137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U138" s="51"/>
+      <c r="V138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U141" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U147" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/v4/log results.xlsx
+++ b/v4/log results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcosPrevitali\Documents\XX - Proyecto Truco\pycharm2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto Truco\pycharm2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D557E7CB-0DAF-4C77-ABD9-C0A5EBB7E5BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20EA91D-02B0-46E4-A224-6C3232EF8B4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="5040" windowWidth="20550" windowHeight="12300" tabRatio="613" firstSheet="1" activeTab="8" xr2:uid="{42B03472-F12E-4C60-9FF9-76C3B66C105B}"/>
+    <workbookView xWindow="21345" yWindow="4170" windowWidth="23250" windowHeight="16050" tabRatio="613" firstSheet="1" activeTab="8" xr2:uid="{42B03472-F12E-4C60-9FF9-76C3B66C105B}"/>
   </bookViews>
   <sheets>
     <sheet name="v2 r2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="v4(envido)" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="197">
   <si>
     <t>gen1</t>
   </si>
@@ -579,12 +578,6 @@
     <t>old 16 sera 66 y viejo 17 sera 77</t>
   </si>
   <si>
-    <t>deben ser grandes</t>
-  </si>
-  <si>
-    <t>deben ser pequeños</t>
-  </si>
-  <si>
     <t>ademas head to head de 16 vs 66 y 17 vs 77 favorable a los teenagers</t>
   </si>
   <si>
@@ -594,9 +587,6 @@
     <t>4.5hrs</t>
   </si>
   <si>
-    <t>39.46%</t>
-  </si>
-  <si>
     <t>observaciones:</t>
   </si>
   <si>
@@ -616,6 +606,30 @@
   </si>
   <si>
     <t>16 p2 no fue tan efectivo como 66p2 en dominar a 15p1  (25,5% vs 32,5%)</t>
+  </si>
+  <si>
+    <t>deben ser mas grandes que sus antecesores</t>
+  </si>
+  <si>
+    <t>deben ser mas pequeños que sus antecesores</t>
+  </si>
+  <si>
+    <t>sockastic</t>
+  </si>
+  <si>
+    <t>SOBRE EL 20, NO DOMINA A NADIE, PERO LO PRINCIPAL ES QUE NADIE LO DOMINA A EL.</t>
+  </si>
+  <si>
+    <t>SERA POSIBLE QUE UN GREEDY LO DOMINE? SEGURO SI, PERO PASARA A SER DOMINADO POR OTROS SI LO HACE</t>
+  </si>
+  <si>
+    <t>Greedys, a ver que tan facil explotan a 20. Hipotesis, seguro lo pueden hacer, pero van a volverse horribles contra otrosl</t>
+  </si>
+  <si>
+    <t>super agresiva</t>
+  </si>
+  <si>
+    <t>21g</t>
   </si>
 </sst>
 </file>
@@ -655,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,6 +745,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1143,12 +1169,13 @@
     <xf numFmtId="164" fontId="3" fillId="11" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1719,15 +1746,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>392597</xdr:colOff>
+      <xdr:colOff>392598</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>122913</xdr:rowOff>
+      <xdr:rowOff>122912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>74213</xdr:colOff>
+      <xdr:colOff>102580</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>260073</xdr:rowOff>
+      <xdr:rowOff>271095</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1742,8 +1769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="9992140" y="17317609"/>
-          <a:ext cx="137160" cy="137160"/>
+          <a:off x="9768103" y="17285522"/>
+          <a:ext cx="148183" cy="112963"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1945,15 +1972,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>5634</xdr:colOff>
+      <xdr:colOff>46099</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>17928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>211352</xdr:colOff>
+      <xdr:colOff>211353</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>122913</xdr:rowOff>
+      <xdr:rowOff>122912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1971,8 +1998,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10068516" y="16266457"/>
-          <a:ext cx="665160" cy="1001456"/>
+          <a:off x="9842195" y="16261716"/>
+          <a:ext cx="568235" cy="1006196"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2567,74 +2594,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>140805</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>289891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>277965</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>138135</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Flecha: hacia abajo 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72ABF2EB-7526-48C7-81BF-AD07353F8375}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9744246" y="17434891"/>
-          <a:ext cx="137160" cy="195626"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>531351</xdr:colOff>
       <xdr:row>107</xdr:row>
@@ -2905,14 +2864,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>212911</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>268941</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>227701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>726397</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:rowOff>100855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2935,8 +2894,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4022911" y="26277794"/>
-          <a:ext cx="3561486" cy="3025589"/>
+          <a:off x="4022911" y="25866760"/>
+          <a:ext cx="4045324" cy="3436624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>246531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>125703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C339F892-8CE0-4099-B965-86A32DDB4F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5042646" y="32687560"/>
+          <a:ext cx="4258236" cy="3184908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5646,8 +5649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3EAB38-01C7-4A62-82C2-717D49706A89}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H57" sqref="A53:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7443,16 +7446,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7646CF-F703-4F0A-AD61-3EB0734B0E6E}">
-  <dimension ref="A5:AA147"/>
+  <dimension ref="A5:Z166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U146" sqref="U146"/>
+    <sheetView tabSelected="1" topLeftCell="F112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="26" width="6" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" customWidth="1"/>
+    <col min="21" max="26" width="6" customWidth="1"/>
     <col min="27" max="27" width="6.140625" customWidth="1"/>
     <col min="30" max="30" width="6.85546875" customWidth="1"/>
     <col min="36" max="36" width="7.42578125" customWidth="1"/>
@@ -8904,13 +8909,7 @@
         <v>176</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="L106" s="16" t="s">
         <v>89</v>
@@ -8951,9 +8950,6 @@
       <c r="D107" s="47"/>
       <c r="E107" s="2">
         <v>0.43</v>
-      </c>
-      <c r="F107" s="39">
-        <v>0.435</v>
       </c>
       <c r="L107" s="16" t="s">
         <v>90</v>
@@ -8995,9 +8991,6 @@
       <c r="E108">
         <v>1.708</v>
       </c>
-      <c r="F108">
-        <v>1.7410000000000001</v>
-      </c>
       <c r="L108" s="16" t="s">
         <v>91</v>
       </c>
@@ -9053,9 +9046,6 @@
       </c>
       <c r="E109">
         <v>1.736</v>
-      </c>
-      <c r="F109">
-        <v>1.7390000000000001</v>
       </c>
       <c r="L109" s="16" t="s">
         <v>92</v>
@@ -9097,9 +9087,6 @@
         <v>1.585</v>
       </c>
       <c r="E110" s="47"/>
-      <c r="F110">
-        <v>1.6990000000000001</v>
-      </c>
       <c r="L110" s="16" t="s">
         <v>102</v>
       </c>
@@ -9140,9 +9127,6 @@
         <v>1.391</v>
       </c>
       <c r="E111" s="47"/>
-      <c r="F111">
-        <v>1.657</v>
-      </c>
       <c r="L111" s="16" t="s">
         <v>106</v>
       </c>
@@ -9185,9 +9169,6 @@
         <v>138</v>
       </c>
       <c r="E112" s="47"/>
-      <c r="F112" t="s">
-        <v>27</v>
-      </c>
       <c r="L112" s="16" t="s">
         <v>108</v>
       </c>
@@ -9218,7 +9199,7 @@
     </row>
     <row r="113" spans="6:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L113" s="16" t="s">
         <v>109</v>
@@ -9390,27 +9371,43 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>191</v>
+      </c>
+      <c r="O129" s="52"/>
+      <c r="P129" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q129" s="16">
+        <v>15</v>
+      </c>
+      <c r="R129" s="16">
+        <v>66</v>
+      </c>
+      <c r="S129" s="16">
+        <v>77</v>
+      </c>
+      <c r="T129" s="16">
+        <v>16</v>
+      </c>
+      <c r="U129" s="16">
+        <v>17</v>
+      </c>
       <c r="V129" s="16">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="W129" s="16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X129" s="16">
-        <v>66</v>
-      </c>
-      <c r="Y129" s="16">
-        <v>77</v>
-      </c>
-      <c r="Z129" s="16">
-        <v>16</v>
-      </c>
-      <c r="AA129" s="16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="Y129" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>166</v>
       </c>
@@ -9425,206 +9422,542 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="T130" s="16">
+      <c r="O130" s="16">
         <v>8</v>
       </c>
-      <c r="V130" s="19">
+      <c r="P130" s="19">
         <v>0.37930000000000003</v>
       </c>
-      <c r="W130" s="11">
+      <c r="Q130" s="45">
         <v>0.32929999999999998</v>
       </c>
-      <c r="X130" s="45">
+      <c r="R130" s="51">
         <v>0.37480000000000002</v>
       </c>
-      <c r="Y130" s="45">
+      <c r="S130" s="51">
         <v>0.42930000000000001</v>
       </c>
-      <c r="Z130" s="52">
+      <c r="T130" s="51">
         <v>0.34549999999999997</v>
       </c>
-      <c r="AA130" s="52"/>
-    </row>
-    <row r="131" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U130" s="51">
+        <v>0.33739999999999998</v>
+      </c>
+      <c r="V130" s="51"/>
+      <c r="W130" s="51"/>
+      <c r="X130" s="44">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="Y130" s="51">
+        <v>0.35120000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T131" s="16">
+      <c r="O131" s="16">
         <v>15</v>
       </c>
-      <c r="V131" s="11">
+      <c r="P131" s="45">
         <v>0.46810000000000002</v>
       </c>
-      <c r="W131" s="19">
+      <c r="Q131" s="19">
         <v>0.3861</v>
       </c>
-      <c r="X131" s="43">
+      <c r="R131" s="45">
         <v>0.25469999999999998</v>
       </c>
-      <c r="Y131" s="45">
+      <c r="S131" s="51">
         <v>0.42049999999999998</v>
       </c>
-      <c r="Z131" s="11">
+      <c r="T131" s="51">
         <v>0.32540000000000002</v>
       </c>
-      <c r="AA131" s="11"/>
-    </row>
-    <row r="132" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U131" s="51"/>
+      <c r="V131" s="51"/>
+      <c r="W131" s="51"/>
+      <c r="X131" s="44">
+        <v>0.3906</v>
+      </c>
+      <c r="Y131" s="53">
+        <v>0.5222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>82</v>
       </c>
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="E132" s="2"/>
-      <c r="T132" s="16">
+      <c r="B132" s="39">
+        <v>0.435</v>
+      </c>
+      <c r="C132" s="39">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D132" s="39">
+        <v>0.42</v>
+      </c>
+      <c r="E132" s="39">
+        <v>0.43</v>
+      </c>
+      <c r="F132" s="39">
+        <v>0.42</v>
+      </c>
+      <c r="O132" s="16">
         <v>66</v>
       </c>
-      <c r="V132" s="45">
+      <c r="P132" s="51">
         <v>0.37159999999999999</v>
       </c>
-      <c r="W132" s="43">
+      <c r="Q132" s="45">
         <v>0.50270000000000004</v>
       </c>
-      <c r="X132" s="19">
+      <c r="R132" s="19">
         <v>0.432</v>
       </c>
-      <c r="Y132" s="43">
+      <c r="S132" s="45">
         <v>0.32429999999999998</v>
       </c>
-      <c r="Z132" s="11">
+      <c r="T132" s="51">
         <v>0.34279999999999999</v>
       </c>
-      <c r="AA132" s="11"/>
-    </row>
-    <row r="133" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U132" s="51">
+        <v>0.3402</v>
+      </c>
+      <c r="V132" s="51"/>
+      <c r="W132" s="51"/>
+      <c r="X132" s="44">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="Y132" s="53">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>78</v>
       </c>
-      <c r="T133" s="16">
+      <c r="B133">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="D133">
+        <v>1.742</v>
+      </c>
+      <c r="E133">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="F133">
+        <v>1.76</v>
+      </c>
+      <c r="O133" s="16">
         <v>77</v>
       </c>
-      <c r="V133" s="45">
+      <c r="P133" s="51">
         <v>0.30959999999999999</v>
       </c>
-      <c r="W133" s="11">
+      <c r="Q133" s="51">
         <v>0.54830000000000001</v>
       </c>
-      <c r="X133" s="43">
+      <c r="R133" s="45">
         <v>0.57589999999999997</v>
       </c>
-      <c r="Y133" s="19">
+      <c r="S133" s="19">
         <v>0.34329999999999999</v>
       </c>
-      <c r="Z133" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA133" s="11"/>
-    </row>
-    <row r="134" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T133" s="34">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="U133" s="51">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="V133" s="51"/>
+      <c r="W133" s="51"/>
+      <c r="X133" s="44">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Y133" s="53">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>79</v>
       </c>
-      <c r="T134" s="16">
+      <c r="B134">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="D134">
+        <v>1.77</v>
+      </c>
+      <c r="E134">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="F134">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="O134" s="16">
         <v>16</v>
       </c>
-      <c r="V134" s="49">
+      <c r="P134" s="51">
         <v>0.41270000000000001</v>
       </c>
-      <c r="W134" s="11">
+      <c r="Q134" s="51">
         <v>0.49690000000000001</v>
       </c>
-      <c r="X134" s="11">
+      <c r="R134" s="51">
         <v>0.44919999999999999</v>
       </c>
-      <c r="Y134" s="11">
+      <c r="S134" s="34">
         <v>0.38429999999999997</v>
       </c>
-      <c r="Z134" s="19">
+      <c r="T134" s="19">
         <v>0.37140000000000001</v>
       </c>
-      <c r="AA134" s="11"/>
-    </row>
-    <row r="135" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U134" s="34">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="V134" s="51"/>
+      <c r="W134" s="51"/>
+      <c r="X134" s="44">
+        <v>0.37</v>
+      </c>
+      <c r="Y134" s="53">
+        <v>0.43509999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>80</v>
       </c>
-      <c r="T135" s="16">
+      <c r="B135">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="D135">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="E135">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="F135">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="O135" s="16">
         <v>17</v>
       </c>
-      <c r="V135" s="49"/>
+      <c r="P135" s="51">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="Q135" s="51"/>
+      <c r="R135" s="51">
+        <v>0.42459999999999998</v>
+      </c>
+      <c r="S135" s="51">
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="T135" s="34">
+        <v>0.3795</v>
+      </c>
+      <c r="U135" s="19">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="V135" s="34">
+        <v>0.34079999999999999</v>
+      </c>
       <c r="W135" s="11"/>
-      <c r="X135" s="11"/>
-      <c r="Y135" s="11"/>
-      <c r="Z135" s="11"/>
-      <c r="AA135" s="19"/>
-    </row>
-    <row r="136" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X135" s="44">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="Y135" s="51">
+        <v>0.33310000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="137" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1.657</v>
+      </c>
+      <c r="D136">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="E136">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="F136">
+        <v>1.714</v>
+      </c>
+      <c r="O136" s="16">
+        <v>18</v>
+      </c>
+      <c r="P136" s="51"/>
+      <c r="Q136" s="51"/>
+      <c r="R136" s="51"/>
+      <c r="S136" s="51"/>
+      <c r="T136" s="51"/>
+      <c r="U136" s="34">
+        <v>0.3821</v>
+      </c>
+      <c r="V136" s="19">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="W136" s="34">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="X136" s="44">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="Y136" s="51">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
-      <c r="U137" s="50"/>
-      <c r="V137" t="s">
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" t="s">
+        <v>27</v>
+      </c>
+      <c r="O137" s="16">
+        <v>19</v>
+      </c>
+      <c r="P137" s="51"/>
+      <c r="Q137" s="51"/>
+      <c r="R137" s="51"/>
+      <c r="S137" s="51"/>
+      <c r="T137" s="51"/>
+      <c r="U137" s="51"/>
+      <c r="V137" s="34">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="W137" s="19">
+        <v>0.3412</v>
+      </c>
+      <c r="X137" s="34">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="Y137" s="51">
+        <v>0.32879999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O138" s="16">
+        <v>20</v>
+      </c>
+      <c r="P138" s="44">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="Q138" s="44">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="R138" s="44">
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="S138" s="44">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="T138" s="44">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="U138" s="44">
+        <v>0.3589</v>
+      </c>
+      <c r="V138" s="44">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="W138" s="34">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="X138" s="19">
+        <v>0.3538</v>
+      </c>
+      <c r="Y138" s="51">
+        <v>0.31359999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O139" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="P139" s="51">
+        <v>0.39229999999999998</v>
+      </c>
+      <c r="Q139" s="51">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="R139" s="51">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="S139" s="51">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="T139" s="53">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="U139" s="53">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="V139" s="51">
+        <v>0.34039999999999998</v>
+      </c>
+      <c r="W139" s="51">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="X139" s="51">
+        <v>0.3392</v>
+      </c>
+      <c r="Y139" s="19">
+        <v>0.34410000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O141" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O142" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O145" s="49"/>
+      <c r="V145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O146" s="50"/>
+      <c r="V146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O147" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U138" s="51"/>
-      <c r="V138" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U139" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U141" s="1" t="s">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O149" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O152" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U142" t="s">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O153" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U143" t="s">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O154" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="U144" t="s">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O155" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U147" t="s">
-        <v>191</v>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" s="39">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C160" s="39"/>
+    </row>
+    <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>78</v>
+      </c>
+      <c r="B161">
+        <v>1.571</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>79</v>
+      </c>
+      <c r="B162">
+        <v>1.3640000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>80</v>
+      </c>
+      <c r="B163">
+        <v>1.526</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164">
+        <v>1.2889999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
